--- a/Networks/Parte2/Excel/Parte2-Network17.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network17.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.056193304157661</v>
+        <v>-0.6910853737908073</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9091412331828447</v>
+        <v>0.1252682626228348</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.293978456401631</v>
+        <v>0.2891235804079033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3196119908965958</v>
+        <v>-0.2907410849550568</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8994059778708919</v>
+        <v>0.8260162381672392</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9398444838523418</v>
+        <v>-1.560745572121295</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.513718429342464</v>
+        <v>-0.7379002882311573</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0278799128830962</v>
+        <v>-0.01531058539982979</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.481057467202491</v>
+        <v>0.6079073878149142</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1578947858730054</v>
+        <v>-0.5090169693119415</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8425472425981082</v>
+        <v>-1.869709450317457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4315511053869163</v>
+        <v>0.7493145828825418</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network17.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network17.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6910853737908073</v>
+        <v>-1.182007550723355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1252682626228348</v>
+        <v>-1.012740346017771</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2891235804079033</v>
+        <v>-0.3861856897723882</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2907410849550568</v>
+        <v>-0.8808188739039313</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8260162381672392</v>
+        <v>-0.3732814333320856</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.560745572121295</v>
+        <v>0.09855202579779687</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7379002882311573</v>
+        <v>-1.054558373124875</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01531058539982979</v>
+        <v>-0.1716155305906732</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6079073878149142</v>
+        <v>0.2318440616085357</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5090169693119415</v>
+        <v>0.878025215190953</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.869709450317457</v>
+        <v>-0.3487201350163849</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7493145828825418</v>
+        <v>0.08863323165777205</v>
       </c>
     </row>
   </sheetData>
